--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/123/word_level_predictions_123.xlsx
@@ -5546,574 +5546,574 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" t="n">
         <v>8</v>
       </c>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Stop</t>
         </is>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" t="n">
         <v>3</v>
       </c>
-      <c r="E99" s="2" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F99" s="2" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L99" s="2" t="inlineStr">
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" t="n">
         <v>8</v>
       </c>
-      <c r="B100" s="2" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C100" s="2" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D100" s="2" t="n">
+      <c r="D100" t="n">
         <v>4</v>
       </c>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G100" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L100" s="2" t="inlineStr">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" t="n">
         <v>8</v>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D101" s="2" t="n">
+      <c r="D101" t="n">
         <v>5</v>
       </c>
-      <c r="E101" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L101" s="2" t="inlineStr">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" t="n">
         <v>8</v>
       </c>
-      <c r="B102" s="2" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C102" s="2" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="D102" s="2" t="n">
+      <c r="D102" t="n">
         <v>6</v>
       </c>
-      <c r="E102" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F102" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L102" s="2" t="inlineStr">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" t="n">
         <v>8</v>
       </c>
-      <c r="B103" s="2" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C103" s="2" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D103" s="2" t="n">
+      <c r="D103" t="n">
         <v>7</v>
       </c>
-      <c r="E103" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F103" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G103" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L103" s="2" t="inlineStr">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I103" t="b">
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" t="n">
         <v>8</v>
       </c>
-      <c r="B104" s="2" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C104" s="2" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" t="n">
         <v>8</v>
       </c>
-      <c r="E104" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G104" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L104" s="2" t="inlineStr">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" t="n">
         <v>8</v>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C105" s="2" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>temperature</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" t="n">
         <v>9</v>
       </c>
-      <c r="E105" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G105" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L105" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" t="n">
         <v>8</v>
       </c>
-      <c r="B106" s="2" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C106" s="2" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" t="n">
         <v>10</v>
       </c>
-      <c r="E106" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F106" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G106" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" t="n">
         <v>8</v>
       </c>
-      <c r="B107" s="2" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C107" s="2" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" t="n">
         <v>11</v>
       </c>
-      <c r="E107" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F107" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G107" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" t="n">
         <v>8</v>
       </c>
-      <c r="B108" s="2" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C108" s="2" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" t="n">
         <v>12</v>
       </c>
-      <c r="E108" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G108" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L108" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" t="n">
         <v>8</v>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C109" s="2" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" t="n">
         <v>13</v>
       </c>
-      <c r="E109" s="2" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F109" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G109" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L109" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6378,106 +6378,106 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E115" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F115" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="G115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E116" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -13953,11 +13953,11 @@
         </is>
       </c>
       <c r="I260" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K260" s="2" t="b">
@@ -14005,11 +14005,11 @@
         </is>
       </c>
       <c r="I261" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J261" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K261" s="2" t="b">
@@ -14057,11 +14057,11 @@
         </is>
       </c>
       <c r="I262" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J262" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K262" s="2" t="b">
@@ -14109,11 +14109,11 @@
         </is>
       </c>
       <c r="I263" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K263" s="2" t="b">
@@ -14161,11 +14161,11 @@
         </is>
       </c>
       <c r="I264" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J264" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K264" s="2" t="b">
@@ -14213,11 +14213,11 @@
         </is>
       </c>
       <c r="I265" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J265" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K265" s="2" t="b">
@@ -14265,11 +14265,11 @@
         </is>
       </c>
       <c r="I266" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J266" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K266" s="2" t="b">
@@ -14305,7 +14305,7 @@
       </c>
       <c r="F267" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G267" s="2" t="b">
@@ -14317,11 +14317,11 @@
         </is>
       </c>
       <c r="I267" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J267" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K267" s="2" t="b">
@@ -14329,7 +14329,7 @@
       </c>
       <c r="L267" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14357,7 +14357,7 @@
       </c>
       <c r="F268" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G268" s="2" t="b">
@@ -14369,11 +14369,11 @@
         </is>
       </c>
       <c r="I268" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K268" s="2" t="b">
@@ -14381,267 +14381,267 @@
       </c>
       <c r="L268" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" t="n">
         <v>20</v>
       </c>
-      <c r="B269" s="2" t="inlineStr">
+      <c r="B269" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C269" s="2" t="inlineStr">
+      <c r="C269" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D269" s="2" t="n">
+      <c r="D269" t="n">
         <v>9</v>
       </c>
-      <c r="E269" s="2" t="inlineStr">
+      <c r="E269" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F269" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" t="n">
         <v>20</v>
       </c>
-      <c r="B270" s="2" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C270" s="2" t="inlineStr">
+      <c r="C270" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D270" s="2" t="n">
+      <c r="D270" t="n">
         <v>10</v>
       </c>
-      <c r="E270" s="2" t="inlineStr">
+      <c r="E270" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F270" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
+      <c r="A271" t="n">
         <v>20</v>
       </c>
-      <c r="B271" s="2" t="inlineStr">
+      <c r="B271" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C271" s="2" t="inlineStr">
+      <c r="C271" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D271" s="2" t="n">
+      <c r="D271" t="n">
         <v>11</v>
       </c>
-      <c r="E271" s="2" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F271" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K271" t="b">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="n">
+      <c r="A272" t="n">
         <v>20</v>
       </c>
-      <c r="B272" s="2" t="inlineStr">
+      <c r="B272" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C272" s="2" t="inlineStr">
+      <c r="C272" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D272" s="2" t="n">
+      <c r="D272" t="n">
         <v>12</v>
       </c>
-      <c r="E272" s="2" t="inlineStr">
+      <c r="E272" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F272" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G272" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I272" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J272" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K272" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L272" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G272" t="b">
+        <v>1</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I272" t="b">
+        <v>1</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K272" t="b">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="2" t="n">
+      <c r="A273" t="n">
         <v>20</v>
       </c>
-      <c r="B273" s="2" t="inlineStr">
+      <c r="B273" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C273" s="2" t="inlineStr">
+      <c r="C273" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D273" s="2" t="n">
+      <c r="D273" t="n">
         <v>13</v>
       </c>
-      <c r="E273" s="2" t="inlineStr">
+      <c r="E273" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F273" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G273" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L273" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G273" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" t="b">
+        <v>1</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K273" t="b">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17090,418 +17090,418 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="n">
+      <c r="A321" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B321" t="inlineStr">
+      <c r="B321" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr">
+      <c r="C321" s="2" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D321" t="n">
+      <c r="D321" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E321" t="inlineStr">
+      <c r="E321" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F321" t="inlineStr">
+      <c r="F321" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G321" t="b">
-        <v>1</v>
-      </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I321" t="b">
-        <v>1</v>
-      </c>
-      <c r="J321" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K321" t="b">
-        <v>1</v>
-      </c>
-      <c r="L321" t="inlineStr">
+      <c r="G321" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H321" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I321" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J321" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K321" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L321" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="n">
+      <c r="A322" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B322" t="inlineStr">
+      <c r="B322" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr">
+      <c r="C322" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D322" t="n">
+      <c r="D322" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G322" t="b">
-        <v>1</v>
-      </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I322" t="b">
-        <v>1</v>
-      </c>
-      <c r="J322" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K322" t="b">
-        <v>1</v>
-      </c>
-      <c r="L322" t="inlineStr">
+      <c r="E322" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F322" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G322" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H322" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I322" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J322" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K322" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L322" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="n">
+      <c r="A323" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B323" t="inlineStr">
+      <c r="B323" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr">
+      <c r="C323" s="2" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D323" t="n">
+      <c r="D323" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G323" t="b">
-        <v>1</v>
-      </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I323" t="b">
-        <v>1</v>
-      </c>
-      <c r="J323" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K323" t="b">
-        <v>1</v>
-      </c>
-      <c r="L323" t="inlineStr">
+      <c r="E323" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F323" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G323" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H323" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I323" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J323" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K323" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L323" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="n">
+      <c r="A324" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B324" t="inlineStr">
+      <c r="B324" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr">
+      <c r="C324" s="2" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D324" t="n">
+      <c r="D324" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G324" t="b">
-        <v>1</v>
-      </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I324" t="b">
-        <v>1</v>
-      </c>
-      <c r="J324" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K324" t="b">
-        <v>1</v>
-      </c>
-      <c r="L324" t="inlineStr">
+      <c r="E324" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F324" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G324" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H324" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I324" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J324" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K324" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L324" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="n">
+      <c r="A325" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B325" t="inlineStr">
+      <c r="B325" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr">
+      <c r="C325" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D325" t="n">
+      <c r="D325" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G325" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I325" t="b">
-        <v>1</v>
-      </c>
-      <c r="J325" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K325" t="b">
-        <v>1</v>
-      </c>
-      <c r="L325" t="inlineStr">
+      <c r="E325" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F325" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G325" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J325" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L325" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="n">
+      <c r="A326" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B326" t="inlineStr">
+      <c r="B326" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr">
+      <c r="C326" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D326" t="n">
+      <c r="D326" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G326" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I326" t="b">
-        <v>1</v>
-      </c>
-      <c r="J326" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K326" t="b">
-        <v>1</v>
-      </c>
-      <c r="L326" t="inlineStr">
+      <c r="E326" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F326" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G326" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J326" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L326" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="n">
+      <c r="A327" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B327" t="inlineStr">
+      <c r="B327" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr">
+      <c r="C327" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D327" t="n">
+      <c r="D327" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G327" t="b">
-        <v>1</v>
-      </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I327" t="b">
-        <v>1</v>
-      </c>
-      <c r="J327" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K327" t="b">
-        <v>1</v>
-      </c>
-      <c r="L327" t="inlineStr">
+      <c r="E327" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F327" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G327" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H327" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I327" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J327" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K327" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L327" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="n">
+      <c r="A328" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B328" t="inlineStr">
+      <c r="B328" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr">
+      <c r="C328" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D328" t="n">
+      <c r="D328" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E328" t="inlineStr">
+      <c r="E328" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G328" t="b">
-        <v>1</v>
-      </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I328" t="b">
-        <v>1</v>
-      </c>
-      <c r="J328" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K328" t="b">
-        <v>1</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F328" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G328" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H328" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I328" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J328" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K328" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L328" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -22989,7 +22989,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G434" t="b">
@@ -23013,57 +23013,57 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="n">
+      <c r="A435" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B435" t="inlineStr">
+      <c r="B435" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C435" t="inlineStr">
+      <c r="C435" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D435" t="n">
+      <c r="D435" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E435" t="inlineStr">
+      <c r="E435" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F435" t="inlineStr">
+      <c r="F435" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G435" t="b">
-        <v>1</v>
-      </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I435" t="b">
-        <v>1</v>
-      </c>
-      <c r="J435" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K435" t="b">
-        <v>1</v>
-      </c>
-      <c r="L435" t="inlineStr">
+      <c r="G435" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H435" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I435" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J435" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K435" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L435" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/123/word_level_predictions_123.xlsx
@@ -5546,574 +5546,574 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>Stop</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F99" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K99" t="b">
-        <v>1</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="G99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K100" t="b">
-        <v>1</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K101" t="b">
-        <v>1</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" s="2" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C102" s="2" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K102" t="b">
-        <v>1</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
+      <c r="A103" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" s="2" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C103" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D103" t="n">
+      <c r="D103" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G103" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I103" t="b">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K103" t="b">
-        <v>1</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K104" t="b">
-        <v>1</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>temperature</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="2" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C107" s="2" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C108" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
+      <c r="A109" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C109" s="2" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E109" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G109" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K109" t="b">
-        <v>1</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6378,106 +6378,106 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" t="n">
         <v>9</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" t="n">
         <v>4</v>
       </c>
-      <c r="E115" s="2" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F115" s="2" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="inlineStr">
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" t="n">
         <v>9</v>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" t="n">
         <v>5</v>
       </c>
-      <c r="E116" s="2" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F116" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -13953,11 +13953,11 @@
         </is>
       </c>
       <c r="I260" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K260" s="2" t="b">
@@ -14005,11 +14005,11 @@
         </is>
       </c>
       <c r="I261" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J261" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K261" s="2" t="b">
@@ -14057,11 +14057,11 @@
         </is>
       </c>
       <c r="I262" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J262" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K262" s="2" t="b">
@@ -14109,11 +14109,11 @@
         </is>
       </c>
       <c r="I263" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J263" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K263" s="2" t="b">
@@ -14161,11 +14161,11 @@
         </is>
       </c>
       <c r="I264" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J264" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K264" s="2" t="b">
@@ -14213,11 +14213,11 @@
         </is>
       </c>
       <c r="I265" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K265" s="2" t="b">
@@ -14265,11 +14265,11 @@
         </is>
       </c>
       <c r="I266" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J266" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K266" s="2" t="b">
@@ -14305,7 +14305,7 @@
       </c>
       <c r="F267" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G267" s="2" t="b">
@@ -14317,11 +14317,11 @@
         </is>
       </c>
       <c r="I267" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J267" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K267" s="2" t="b">
@@ -14329,7 +14329,7 @@
       </c>
       <c r="L267" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14357,291 +14357,291 @@
       </c>
       <c r="F268" s="2" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B269" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C269" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E269" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
+      <c r="F269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D269" t="n">
-        <v>9</v>
-      </c>
-      <c r="E269" t="inlineStr">
+      <c r="C270" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E270" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
+      <c r="F270" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B271" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D270" t="n">
-        <v>10</v>
-      </c>
-      <c r="E270" t="inlineStr">
+      <c r="C271" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E271" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
+      <c r="F271" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B272" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C272" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E272" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
+      <c r="F272" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G272" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H272" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I272" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J272" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K272" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L272" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B273" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D271" t="n">
-        <v>11</v>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G271" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I271" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K271" t="b">
-        <v>1</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>20</v>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D272" t="n">
-        <v>12</v>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G272" t="b">
-        <v>1</v>
-      </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I272" t="b">
-        <v>1</v>
-      </c>
-      <c r="J272" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K272" t="b">
-        <v>1</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>20</v>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
+      <c r="C273" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D273" t="n">
+      <c r="D273" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E273" t="inlineStr">
+      <c r="E273" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G273" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" t="b">
-        <v>1</v>
-      </c>
-      <c r="J273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K273" t="b">
-        <v>1</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F273" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G273" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J273" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L273" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17090,418 +17090,418 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="2" t="n">
+      <c r="A321" t="n">
         <v>26</v>
       </c>
-      <c r="B321" s="2" t="inlineStr">
+      <c r="B321" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C321" s="2" t="inlineStr">
+      <c r="C321" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D321" s="2" t="n">
+      <c r="D321" t="n">
         <v>4</v>
       </c>
-      <c r="E321" s="2" t="inlineStr">
+      <c r="E321" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F321" s="2" t="inlineStr">
+      <c r="F321" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G321" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H321" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I321" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J321" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K321" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L321" s="2" t="inlineStr">
+      <c r="G321" t="b">
+        <v>1</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I321" t="b">
+        <v>1</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K321" t="b">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="2" t="n">
+      <c r="A322" t="n">
         <v>26</v>
       </c>
-      <c r="B322" s="2" t="inlineStr">
+      <c r="B322" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C322" s="2" t="inlineStr">
+      <c r="C322" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D322" s="2" t="n">
+      <c r="D322" t="n">
         <v>5</v>
       </c>
-      <c r="E322" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F322" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G322" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H322" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I322" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J322" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K322" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L322" s="2" t="inlineStr">
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G322" t="b">
+        <v>1</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I322" t="b">
+        <v>1</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K322" t="b">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="2" t="n">
+      <c r="A323" t="n">
         <v>26</v>
       </c>
-      <c r="B323" s="2" t="inlineStr">
+      <c r="B323" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C323" s="2" t="inlineStr">
+      <c r="C323" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D323" s="2" t="n">
+      <c r="D323" t="n">
         <v>6</v>
       </c>
-      <c r="E323" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F323" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G323" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H323" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I323" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J323" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K323" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L323" s="2" t="inlineStr">
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G323" t="b">
+        <v>1</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I323" t="b">
+        <v>1</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K323" t="b">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="2" t="n">
+      <c r="A324" t="n">
         <v>26</v>
       </c>
-      <c r="B324" s="2" t="inlineStr">
+      <c r="B324" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C324" s="2" t="inlineStr">
+      <c r="C324" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D324" s="2" t="n">
+      <c r="D324" t="n">
         <v>7</v>
       </c>
-      <c r="E324" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F324" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G324" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H324" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I324" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J324" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K324" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L324" s="2" t="inlineStr">
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G324" t="b">
+        <v>1</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I324" t="b">
+        <v>1</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K324" t="b">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="2" t="n">
+      <c r="A325" t="n">
         <v>26</v>
       </c>
-      <c r="B325" s="2" t="inlineStr">
+      <c r="B325" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C325" s="2" t="inlineStr">
+      <c r="C325" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D325" s="2" t="n">
+      <c r="D325" t="n">
         <v>8</v>
       </c>
-      <c r="E325" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F325" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G325" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I325" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J325" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K325" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L325" s="2" t="inlineStr">
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G325" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I325" t="b">
+        <v>1</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K325" t="b">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="2" t="n">
+      <c r="A326" t="n">
         <v>26</v>
       </c>
-      <c r="B326" s="2" t="inlineStr">
+      <c r="B326" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C326" s="2" t="inlineStr">
+      <c r="C326" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D326" s="2" t="n">
+      <c r="D326" t="n">
         <v>9</v>
       </c>
-      <c r="E326" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F326" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G326" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I326" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J326" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K326" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L326" s="2" t="inlineStr">
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G326" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I326" t="b">
+        <v>1</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K326" t="b">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="2" t="n">
+      <c r="A327" t="n">
         <v>26</v>
       </c>
-      <c r="B327" s="2" t="inlineStr">
+      <c r="B327" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C327" s="2" t="inlineStr">
+      <c r="C327" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D327" s="2" t="n">
+      <c r="D327" t="n">
         <v>10</v>
       </c>
-      <c r="E327" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F327" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G327" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H327" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I327" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J327" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K327" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L327" s="2" t="inlineStr">
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G327" t="b">
+        <v>1</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I327" t="b">
+        <v>1</v>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K327" t="b">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="2" t="n">
+      <c r="A328" t="n">
         <v>26</v>
       </c>
-      <c r="B328" s="2" t="inlineStr">
+      <c r="B328" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C328" s="2" t="inlineStr">
+      <c r="C328" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D328" s="2" t="n">
+      <c r="D328" t="n">
         <v>11</v>
       </c>
-      <c r="E328" s="2" t="inlineStr">
+      <c r="E328" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F328" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G328" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H328" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I328" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J328" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K328" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L328" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G328" t="b">
+        <v>1</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I328" t="b">
+        <v>1</v>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K328" t="b">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -22989,81 +22989,81 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G434" t="b">
+        <v>1</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I434" t="b">
+        <v>1</v>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K434" t="b">
+        <v>1</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>35</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Running Flight Simulator . Restart aircraft to take off .</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>8</v>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G434" t="b">
-        <v>1</v>
-      </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I434" t="b">
-        <v>1</v>
-      </c>
-      <c r="J434" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K434" t="b">
-        <v>1</v>
-      </c>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B435" s="2" t="inlineStr">
-        <is>
-          <t>Running Flight Simulator . Restart aircraft to take off .</t>
-        </is>
-      </c>
-      <c r="C435" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D435" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E435" s="2" t="inlineStr">
+      <c r="F435" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F435" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G435" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H435" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I435" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J435" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K435" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L435" s="2" t="inlineStr">
+      <c r="G435" t="b">
+        <v>1</v>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I435" t="b">
+        <v>1</v>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K435" t="b">
+        <v>1</v>
+      </c>
+      <c r="L435" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
